--- a/fia/analytics I - planilha/Teste-de-Hipotese Modificado.xlsx
+++ b/fia/analytics I - planilha/Teste-de-Hipotese Modificado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\20210608\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\analytics I - planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A698AEC9-7D75-4265-B0A9-6157BA3FD896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6FB5A2-6AD8-4E74-854C-A4A2FEA527D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-465" windowWidth="29040" windowHeight="15990" tabRatio="749" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-465" windowWidth="29040" windowHeight="15990" tabRatio="749" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intervalo_Confiança=&gt;" sheetId="25" r:id="rId1"/>
@@ -7317,7 +7317,7 @@
   <dimension ref="B1:N8"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7561,8 +7561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:N8"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" activeCellId="1" sqref="C4 C6"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7603,34 +7603,34 @@
         <v>25</v>
       </c>
       <c r="C3" s="18">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16" t="e">
+      <c r="F3" s="16">
         <f>C4*(SQRT(C6/C5))</f>
-        <v>#NUM!</v>
+        <v>2.1842829155817024E-2</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="54" t="e">
+      <c r="C4" s="54">
         <f>NORMSINV(C3+((1-C3)/2))</f>
-        <v>#NUM!</v>
+        <v>1.9599639845400536</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="17" t="e">
+      <c r="J4" s="17">
         <f>C7-F3</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K4" s="17" t="e">
+        <v>0.518157170844183</v>
+      </c>
+      <c r="K4" s="17">
         <f>C7+F3</f>
-        <v>#NUM!</v>
+        <v>0.56184282915581707</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>4</v>
@@ -7643,7 +7643,9 @@
       <c r="B5" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>2000</v>
+      </c>
       <c r="N5" s="10" t="s">
         <v>7</v>
       </c>
@@ -7654,14 +7656,16 @@
       </c>
       <c r="C6" s="50">
         <f>C7*(1-C7)</f>
-        <v>0</v>
+        <v>0.24840000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>0.54</v>
+      </c>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="2:14">
@@ -7717,8 +7721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:T9"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7793,12 +7797,14 @@
         <v>39</v>
       </c>
       <c r="C3" s="2">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E3" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>299</v>
+      </c>
       <c r="G3" s="14"/>
       <c r="H3" s="44" t="s">
         <v>39</v>
@@ -7823,14 +7829,14 @@
       </c>
       <c r="C4" s="48">
         <f>1-C3</f>
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="16" t="e">
+      <c r="F4" s="16">
         <f>(F3-C8)/(C7/(SQRT(C6)))</f>
-        <v>#DIV/0!</v>
+        <v>-7.0710678118654755</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="42" t="s">
@@ -7868,14 +7874,14 @@
       </c>
       <c r="C5" s="49">
         <f>NORMSINV(C4+((1-C4)/2))</f>
-        <v>1.9599639845400536</v>
+        <v>2.5758293035488999</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="53" t="e">
+      <c r="F5" s="53">
         <f>IF(F4&gt;=0,2*(1-_xlfn.NORM.S.DIST(F4, TRUE)),2*(_xlfn.NORM.S.DIST(F4, TRUE)))</f>
-        <v>#DIV/0!</v>
+        <v>1.5374597944280234E-12</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="35" t="s">
@@ -7911,7 +7917,9 @@
       <c r="B6" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>50</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -7938,7 +7946,9 @@
       <c r="B7" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
       <c r="G7" s="14"/>
       <c r="H7" s="35" t="s">
         <v>51</v>
@@ -7956,7 +7966,9 @@
       <c r="B8" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>300</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="45" t="s">
         <v>32</v>
@@ -8275,7 +8287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:T9"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
